--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H2">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J2">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>3507.682645546575</v>
+        <v>158.9420487749746</v>
       </c>
       <c r="R2">
-        <v>31569.14380991918</v>
+        <v>1430.478438974772</v>
       </c>
       <c r="S2">
-        <v>0.23508707934618</v>
+        <v>0.01775214935340512</v>
       </c>
       <c r="T2">
-        <v>0.23508707934618</v>
+        <v>0.01775214935340512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H3">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J3">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>2171.648245758823</v>
+        <v>91.45355135107279</v>
       </c>
       <c r="R3">
-        <v>19544.83421182941</v>
+        <v>823.0819621596551</v>
       </c>
       <c r="S3">
-        <v>0.1455452203211347</v>
+        <v>0.01021439647340929</v>
       </c>
       <c r="T3">
-        <v>0.1455452203211347</v>
+        <v>0.01021439647340929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.111822</v>
+        <v>1.436534333333333</v>
       </c>
       <c r="H4">
-        <v>102.335466</v>
+        <v>4.309603</v>
       </c>
       <c r="I4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="J4">
-        <v>0.4228853893909983</v>
+        <v>0.03241561610838976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>630.44906575337</v>
+        <v>39.83429451948577</v>
       </c>
       <c r="R4">
-        <v>5674.041591780329</v>
+        <v>358.508650675372</v>
       </c>
       <c r="S4">
-        <v>0.04225308972368367</v>
+        <v>0.004449070281575344</v>
       </c>
       <c r="T4">
-        <v>0.04225308972368366</v>
+        <v>0.004449070281575344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
         <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J5">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>3586.890821629729</v>
+        <v>3859.4514062011</v>
       </c>
       <c r="R5">
-        <v>32282.01739466756</v>
+        <v>34735.06265580991</v>
       </c>
       <c r="S5">
-        <v>0.2403956607252189</v>
+        <v>0.4310599889277303</v>
       </c>
       <c r="T5">
-        <v>0.2403956607252189</v>
+        <v>0.4310599889277304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
         <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J6">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
         <v>2220.686974179459</v>
@@ -818,10 +818,10 @@
         <v>19986.18276761513</v>
       </c>
       <c r="S6">
-        <v>0.1488318264951267</v>
+        <v>0.2480272976008223</v>
       </c>
       <c r="T6">
-        <v>0.1488318264951267</v>
+        <v>0.2480272976008223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.88211266666667</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
         <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162607</v>
       </c>
       <c r="J7">
-        <v>0.4324347083490296</v>
+        <v>0.7871201871162609</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>644.6854507567434</v>
+        <v>967.2614967730567</v>
       </c>
       <c r="R7">
-        <v>5802.169056810691</v>
+        <v>8705.353470957511</v>
       </c>
       <c r="S7">
-        <v>0.04320722112868406</v>
+        <v>0.1080329005877081</v>
       </c>
       <c r="T7">
-        <v>0.04320722112868405</v>
+        <v>0.1080329005877081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H8">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I8">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J8">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>1200.067902671034</v>
+        <v>884.8620698768838</v>
       </c>
       <c r="R8">
-        <v>10800.61112403931</v>
+        <v>7963.758628891955</v>
       </c>
       <c r="S8">
-        <v>0.08042929955884551</v>
+        <v>0.09882975425752087</v>
       </c>
       <c r="T8">
-        <v>0.08042929955884549</v>
+        <v>0.09882975425752087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H9">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I9">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J9">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>742.9763804133795</v>
+        <v>509.1401512048683</v>
       </c>
       <c r="R9">
-        <v>6686.787423720415</v>
+        <v>4582.261360843815</v>
       </c>
       <c r="S9">
-        <v>0.04979474055793928</v>
+        <v>0.05686558135915491</v>
       </c>
       <c r="T9">
-        <v>0.04979474055793926</v>
+        <v>0.05686558135915491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.67052633333333</v>
+        <v>7.997472999999999</v>
       </c>
       <c r="H10">
-        <v>35.011579</v>
+        <v>23.992419</v>
       </c>
       <c r="I10">
-        <v>0.1446799022599722</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="J10">
-        <v>0.1446799022599721</v>
+        <v>0.1804641967753495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>215.6927420558217</v>
+        <v>221.7654583684173</v>
       </c>
       <c r="R10">
-        <v>1941.234678502395</v>
+        <v>1995.889125315756</v>
       </c>
       <c r="S10">
-        <v>0.01445586214318738</v>
+        <v>0.02476886115867369</v>
       </c>
       <c r="T10">
-        <v>0.01445586214318738</v>
+        <v>0.02476886115867369</v>
       </c>
     </row>
   </sheetData>
